--- a/data/EstacionesLocalizacion.xlsx
+++ b/data/EstacionesLocalizacion.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pablo/Documents/TFM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{73055F31-05D6-0B45-A557-863BC551E129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D128CFB1-D4DD-F547-B16D-1E7D369A5D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstacionesLocalizacion" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,9 @@
     <t>3º 39' 05,48'' W</t>
   </si>
   <si>
-    <t>40º 26' 24,17'' N</t>
-  </si>
-  <si>
     <t>3º 38' 21,24'' W</t>
   </si>
   <si>
-    <t>40º 20' 49,56" N</t>
-  </si>
-  <si>
     <t>3º 42' 47,98" W</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>3º 41' 12" O</t>
   </si>
   <si>
-    <t>40º 24' 52" N</t>
-  </si>
-  <si>
     <t>40º 22' 22'' N</t>
   </si>
   <si>
@@ -202,61 +193,70 @@
     <t>Tres Olivos</t>
   </si>
   <si>
-    <t>3º 42' 43.91" O</t>
-  </si>
-  <si>
-    <t>40º 25' 25.98" N </t>
-  </si>
-  <si>
-    <t>40º 25' 17.63'' N</t>
-  </si>
-  <si>
-    <t>3º 40' 56.22'' O</t>
-  </si>
-  <si>
-    <t>40º 27' 5.29'' N</t>
-  </si>
-  <si>
-    <t>3º 40' 38.5'' O</t>
-  </si>
-  <si>
-    <t>40º 25' 9.15'' N</t>
-  </si>
-  <si>
-    <t>3º 42' 11.4'' O</t>
-  </si>
-  <si>
-    <t>40º 26' 43.97" N</t>
-  </si>
-  <si>
-    <t>3º 42' 25.64'' O</t>
-  </si>
-  <si>
-    <t>40º 28' 41.64'' N</t>
-  </si>
-  <si>
-    <t>3º 42' 41.53'' O</t>
-  </si>
-  <si>
-    <t>40º 26' 23.61'' N</t>
-  </si>
-  <si>
-    <t>3º 41' 25.34'' O</t>
-  </si>
-  <si>
-    <t>3º 40' 57.3" O</t>
-  </si>
-  <si>
-    <t>40º 27' 56.1" N</t>
-  </si>
-  <si>
-    <t>3º 41' 19.48" O</t>
+    <t>40º 20' 49,56"N</t>
+  </si>
+  <si>
+    <t>40º 26' 24,17" N</t>
+  </si>
+  <si>
+    <t>40º25´25.98"N</t>
+  </si>
+  <si>
+    <t>40º25´17.63"N</t>
+  </si>
+  <si>
+    <t>3º42´43.91"O</t>
+  </si>
+  <si>
+    <t>3º40´56.22"O</t>
+  </si>
+  <si>
+    <t>3º40´38.5"O</t>
+  </si>
+  <si>
+    <t>40º27´5.29"N</t>
+  </si>
+  <si>
+    <t>40º25´9.15"N</t>
+  </si>
+  <si>
+    <t>3º42´11.4"O</t>
+  </si>
+  <si>
+    <t>40º26´43.97"N</t>
+  </si>
+  <si>
+    <t>3º42´25.64"O</t>
+  </si>
+  <si>
+    <t>40º28´41.64"N</t>
+  </si>
+  <si>
+    <t>3º42´41.53"O</t>
+  </si>
+  <si>
+    <t>40º26´23.61"N</t>
+  </si>
+  <si>
+    <t>3º41´25.34"O</t>
+  </si>
+  <si>
+    <t>40º24´52"N</t>
+  </si>
+  <si>
+    <t>3º40´57.3"O</t>
+  </si>
+  <si>
+    <t>40º27´56.1"N</t>
+  </si>
+  <si>
+    <t>3º41´19.48"O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -412,7 +412,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,8 +598,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -714,6 +726,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -759,12 +839,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,27 +985,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D26" totalsRowShown="0">
-  <autoFilter ref="A1:D26">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <sortState ref="A2:D26">
-    <sortCondition ref="A1:A26"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Estacion"/>
-    <tableColumn id="2" name="Columna1"/>
-    <tableColumn id="3" name="Latitud"/>
-    <tableColumn id="4" name="Longitud"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1206,385 +1283,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="18">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11">
+        <v>38</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11">
+        <v>39</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="18">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11">
+        <v>50</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16">
+        <v>55</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="18">
+        <v>56</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18">
+        <v>58</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="16">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="20">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>49</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D26" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/data/EstacionesLocalizacion.xlsx
+++ b/data/EstacionesLocalizacion.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pablo/Documents/TFM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D128CFB1-D4DD-F547-B16D-1E7D369A5D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0E6E5-7708-4A41-BD1E-314B8920EF62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstacionesLocalizacion" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EstacionesLocalizacion!$A$1:$D$26</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -67,12 +70,6 @@
     <t>3º 34' 48,10'' W</t>
   </si>
   <si>
-    <t>40º 23' 53" N</t>
-  </si>
-  <si>
-    <t>3º 41' 12" O</t>
-  </si>
-  <si>
     <t>40º 22' 22'' N</t>
   </si>
   <si>
@@ -251,6 +248,12 @@
   </si>
   <si>
     <t>3º41´19.48"O</t>
+  </si>
+  <si>
+    <t>40º23´53.17"N</t>
+  </si>
+  <si>
+    <t>3º41´12.57"O</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +610,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -839,11 +848,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -860,9 +868,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="35" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1287,7 +1299,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1299,367 +1311,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="17">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="17">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="17">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17">
+        <v>58</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11">
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10">
+        <v>49</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10">
+        <v>50</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10">
+        <v>48</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10">
+        <v>35</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10">
+        <v>38</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10">
+        <v>39</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="11">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="18">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11">
-        <v>35</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11">
-        <v>38</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="11">
-        <v>39</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="16">
-        <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11">
-        <v>50</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="16">
-        <v>55</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="18">
-        <v>56</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="18">
-        <v>58</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="16">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="20">
-        <v>60</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D26" xr:uid="{E3E0CFAE-35BA-4140-B899-44EE3CB37608}">
+    <sortState ref="A2:D26">
+      <sortCondition ref="D1:D26"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/EstacionesLocalizacion.xlsx
+++ b/data/EstacionesLocalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pablo/Documents/TFM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0E6E5-7708-4A41-BD1E-314B8920EF62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901674D9-700D-E146-A6A6-36E69C43E536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,84 +34,6 @@
     <t>Longitud</t>
   </si>
   <si>
-    <t>40º 23' 17,34'' N</t>
-  </si>
-  <si>
-    <t>3º 39' 05,48'' W</t>
-  </si>
-  <si>
-    <t>3º 38' 21,24'' W</t>
-  </si>
-  <si>
-    <t>3º 42' 47,98" W</t>
-  </si>
-  <si>
-    <t>40º 23' 41,20'' N</t>
-  </si>
-  <si>
-    <t>3º 43' 54,60'' W</t>
-  </si>
-  <si>
-    <t>40º 24' 28,64'' N</t>
-  </si>
-  <si>
-    <t>3º 38' 43,06'' W</t>
-  </si>
-  <si>
-    <t>40º 25' 09,68'' N</t>
-  </si>
-  <si>
-    <t>3º 44' 50,44'' W</t>
-  </si>
-  <si>
-    <t>40º 28' 36,94'' N</t>
-  </si>
-  <si>
-    <t>3º 34' 48,10'' W</t>
-  </si>
-  <si>
-    <t>40º 22' 22'' N</t>
-  </si>
-  <si>
-    <t>3º 36' 43'' O</t>
-  </si>
-  <si>
-    <t>40º 27' 45'' N</t>
-  </si>
-  <si>
-    <t>3º 34' 50'' W</t>
-  </si>
-  <si>
-    <t>40º 23' 05'' N</t>
-  </si>
-  <si>
-    <t>3º 43' 7'' W</t>
-  </si>
-  <si>
-    <t>40º 29' 39,1" N</t>
-  </si>
-  <si>
-    <t>3º 39' 37,8" O</t>
-  </si>
-  <si>
-    <t>40º 31' 5" N</t>
-  </si>
-  <si>
-    <t>3º 46' 28,6" O</t>
-  </si>
-  <si>
-    <t>40º 27' 54'' N</t>
-  </si>
-  <si>
-    <t>3º 36' 32'' W</t>
-  </si>
-  <si>
-    <t>40º 30' 02'' N</t>
-  </si>
-  <si>
-    <t>3º 41' 23' O</t>
-  </si>
-  <si>
     <t>Columna1</t>
   </si>
   <si>
@@ -190,12 +112,6 @@
     <t>Tres Olivos</t>
   </si>
   <si>
-    <t>40º 20' 49,56"N</t>
-  </si>
-  <si>
-    <t>40º 26' 24,17" N</t>
-  </si>
-  <si>
     <t>40º25´25.98"N</t>
   </si>
   <si>
@@ -254,13 +170,100 @@
   </si>
   <si>
     <t>3º41´12.57"O</t>
+  </si>
+  <si>
+    <t>40º28´36.94"N</t>
+  </si>
+  <si>
+    <t>40º27´45"N</t>
+  </si>
+  <si>
+    <t>40º27´54"N</t>
+  </si>
+  <si>
+    <t>40º22´22"N</t>
+  </si>
+  <si>
+    <t>40º24´28.64"N</t>
+  </si>
+  <si>
+    <t>40º29´39.1"N</t>
+  </si>
+  <si>
+    <t>40º30´02"N</t>
+  </si>
+  <si>
+    <t>40º20´49.56"N</t>
+  </si>
+  <si>
+    <t>40º31´5"N</t>
+  </si>
+  <si>
+    <t>3º36´43"O</t>
+  </si>
+  <si>
+    <t>40º26´24.20"N</t>
+  </si>
+  <si>
+    <t>3º38´21.17"O</t>
+  </si>
+  <si>
+    <t>40º23´41.22"N</t>
+  </si>
+  <si>
+    <t>40º25´09.69"N</t>
+  </si>
+  <si>
+    <t>3º44´50.44"O</t>
+  </si>
+  <si>
+    <t>3º38´43.02"O</t>
+  </si>
+  <si>
+    <t>40º23´17.33"N</t>
+  </si>
+  <si>
+    <t>40º23´6.1"N</t>
+  </si>
+  <si>
+    <t>3º43´7.54"O</t>
+  </si>
+  <si>
+    <t>3º42´47.98"O</t>
+  </si>
+  <si>
+    <t>3º34´48.10"O</t>
+  </si>
+  <si>
+    <t>3º34´50"O</t>
+  </si>
+  <si>
+    <t>3º36´32"O</t>
+  </si>
+  <si>
+    <t>3º39´37.8"O</t>
+  </si>
+  <si>
+    <t>3º41´23"O</t>
+  </si>
+  <si>
+    <t>3º46´28.6"O</t>
+  </si>
+  <si>
+    <t>3º39´5.5"O</t>
+  </si>
+  <si>
+    <t>3º43´54.61"O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,21 +399,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0077B9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF686868"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -804,7 +800,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -847,36 +843,44 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="19" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="35" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="14" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -909,6 +913,7 @@
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="42" builtinId="3"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -920,7 +925,24 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -945,7 +967,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>26988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,385 +1318,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="17">
+      <c r="D2" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="12">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
+      <c r="A8" s="12">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9" s="10">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
+      <c r="A10" s="12">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8">
+        <v>40</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14">
+        <v>47</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1">
+      <c r="A20" s="12">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1">
+      <c r="A21" s="10">
         <v>55</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>56</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1">
+      <c r="A23" s="10">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1">
+      <c r="A24" s="12">
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25" s="10">
         <v>59</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17">
-        <v>54</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="15">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23">
-        <v>47</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17">
+      <c r="D25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
+      <c r="A26" s="23">
         <v>60</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B26" s="24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="15">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17">
-        <v>56</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="17">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="17">
-        <v>58</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10">
-        <v>11</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10">
-        <v>8</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10">
-        <v>49</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10">
-        <v>50</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="10">
-        <v>48</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10">
-        <v>35</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="10">
-        <v>38</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="10">
-        <v>39</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10">
-        <v>4</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="20">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="22"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="22"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="22"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="22"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26" xr:uid="{E3E0CFAE-35BA-4140-B899-44EE3CB37608}">
+  <autoFilter ref="A1:D26" xr:uid="{513FC51B-73D6-0840-9039-657D72C082FF}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <sortState ref="A2:D26">
-      <sortCondition ref="D1:D26"/>
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
